--- a/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF93DC5-FF18-4F63-8671-435A80A0FFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAB01BE-F250-4B79-B1AA-5AADE4237B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B88EC83B-C97E-4250-A2D8-D62150C40BF7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC6F24AB-61BD-44C4-988F-8E18DF26A132}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>80,56%</t>
   </si>
   <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>19,44%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>72,55%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,223 +194,223 @@
     <t>84,47%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
     <t>44,65%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73151365-6246-4F68-8F5E-DFE0542A6A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED27E8E7-539F-4A8D-803D-60ED19783921}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAB01BE-F250-4B79-B1AA-5AADE4237B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AE2CF0-AFEE-42FB-96C1-E77D20AC4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC6F24AB-61BD-44C4-988F-8E18DF26A132}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{212C6867-A9E7-414D-A030-AE66B6BA24F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,28 +74,28 @@
     <t>80,56%</t>
   </si>
   <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,202 @@
     <t>19,44%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>69,21%</t>
   </si>
   <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>75,18%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>24,82%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>77,25%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>55,35%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>44,65%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED27E8E7-539F-4A8D-803D-60ED19783921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9EEDA8-53DE-470E-82E8-1F03F09D445A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1617,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="7">
-        <v>116783</v>
+        <v>116782</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1668,7 +1668,7 @@
         <v>531</v>
       </c>
       <c r="D18" s="7">
-        <v>513397</v>
+        <v>513396</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AE2CF0-AFEE-42FB-96C1-E77D20AC4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC519630-0F59-40EF-BF92-F0D15591B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{212C6867-A9E7-414D-A030-AE66B6BA24F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37338E37-CD2D-4482-9184-27A298409D40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>80,56%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>19,44%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,31 +140,31 @@
     <t>67,14%</t>
   </si>
   <si>
-    <t>77,44%</t>
+    <t>77,39%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>22,56%</t>
+    <t>22,61%</t>
   </si>
   <si>
     <t>32,86%</t>
@@ -173,19 +173,19 @@
     <t>47,63%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>84,47%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>78,4%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>69,21%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>75,18%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>24,82%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>77,25%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>55,35%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>44,65%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9EEDA8-53DE-470E-82E8-1F03F09D445A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E30CC6E-1992-4488-B5DA-D6357DEF3A2B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1617,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="7">
-        <v>116782</v>
+        <v>116783</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1668,7 +1668,7 @@
         <v>531</v>
       </c>
       <c r="D18" s="7">
-        <v>513396</v>
+        <v>513397</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC519630-0F59-40EF-BF92-F0D15591B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDE5012-3C7C-4225-8833-811C1AF84171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37338E37-CD2D-4482-9184-27A298409D40}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C01E694F-2A6D-4B93-B5AA-93489462945B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si le han informado sobre los riesgos laborales de su trabajo en su empresa en 2007 (Tasa respuesta: 39,63%)</t>
   </si>
@@ -65,129 +65,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -245,7 +188,7 @@
     <t>26,44%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>78,4%</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E30CC6E-1992-4488-B5DA-D6357DEF3A2B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C578CBC4-F206-4670-A2A6-E4D00B43B3DF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="D4" s="7">
-        <v>38850</v>
+        <v>255033</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>11318</v>
+        <v>73034</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="N4" s="7">
-        <v>50168</v>
+        <v>328067</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>9374</v>
+        <v>91160</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>6205</v>
+        <v>62340</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="N5" s="7">
-        <v>15579</v>
+        <v>153500</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>48224</v>
+        <v>346193</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="I6" s="7">
-        <v>17523</v>
+        <v>135374</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>61</v>
+        <v>462</v>
       </c>
       <c r="N6" s="7">
-        <v>65747</v>
+        <v>481567</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>210</v>
+        <v>399</v>
       </c>
       <c r="D7" s="7">
-        <v>216183</v>
+        <v>441756</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="I7" s="7">
-        <v>61716</v>
+        <v>151665</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>271</v>
+        <v>541</v>
       </c>
       <c r="N7" s="7">
-        <v>277898</v>
+        <v>593421</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>81786</v>
+        <v>81228</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7">
-        <v>56136</v>
+        <v>98502</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="N8" s="7">
-        <v>137922</v>
+        <v>179730</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>288</v>
+        <v>472</v>
       </c>
       <c r="D9" s="7">
-        <v>297969</v>
+        <v>522984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="I9" s="7">
-        <v>117852</v>
+        <v>250167</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>401</v>
+        <v>705</v>
       </c>
       <c r="N9" s="7">
-        <v>415820</v>
+        <v>773151</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>399</v>
+        <v>276</v>
       </c>
       <c r="D10" s="7">
-        <v>441756</v>
+        <v>295129</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>151665</v>
+        <v>140026</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>541</v>
+        <v>419</v>
       </c>
       <c r="N10" s="7">
-        <v>593421</v>
+        <v>435155</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>81228</v>
+        <v>81329</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>98502</v>
+        <v>62304</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="N11" s="7">
-        <v>179730</v>
+        <v>143633</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>472</v>
+        <v>351</v>
       </c>
       <c r="D12" s="7">
-        <v>522984</v>
+        <v>376458</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="I12" s="7">
-        <v>250167</v>
+        <v>202330</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>705</v>
+        <v>554</v>
       </c>
       <c r="N12" s="7">
-        <v>773151</v>
+        <v>578788</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="D13" s="7">
-        <v>295129</v>
+        <v>396614</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="I13" s="7">
-        <v>140026</v>
+        <v>192666</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>419</v>
+        <v>596</v>
       </c>
       <c r="N13" s="7">
-        <v>435155</v>
+        <v>589280</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7">
-        <v>81329</v>
+        <v>116783</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="I14" s="7">
-        <v>62304</v>
+        <v>155411</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="N14" s="7">
-        <v>143633</v>
+        <v>272194</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>351</v>
+        <v>531</v>
       </c>
       <c r="D15" s="7">
-        <v>376458</v>
+        <v>513397</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="I15" s="7">
-        <v>202330</v>
+        <v>348077</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>554</v>
+        <v>859</v>
       </c>
       <c r="N15" s="7">
-        <v>578788</v>
+        <v>861474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>412</v>
+        <v>1330</v>
       </c>
       <c r="D16" s="7">
-        <v>396614</v>
+        <v>1388531</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>542</v>
+      </c>
+      <c r="I16" s="7">
+        <v>557390</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>184</v>
-      </c>
-      <c r="I16" s="7">
-        <v>192666</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1872</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1945922</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>596</v>
-      </c>
-      <c r="N16" s="7">
-        <v>589280</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>119</v>
+        <v>354</v>
       </c>
       <c r="D17" s="7">
-        <v>116783</v>
+        <v>370500</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>354</v>
+      </c>
+      <c r="I17" s="7">
+        <v>378558</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>144</v>
-      </c>
-      <c r="I17" s="7">
-        <v>155411</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>708</v>
+      </c>
+      <c r="N17" s="7">
+        <v>749057</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>263</v>
-      </c>
-      <c r="N17" s="7">
-        <v>272194</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>531</v>
+        <v>1684</v>
       </c>
       <c r="D18" s="7">
-        <v>513397</v>
+        <v>1759031</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>328</v>
+        <v>896</v>
       </c>
       <c r="I18" s="7">
-        <v>348077</v>
+        <v>935948</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>859</v>
+        <v>2580</v>
       </c>
       <c r="N18" s="7">
-        <v>861474</v>
+        <v>2694979</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1330</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1388531</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>542</v>
-      </c>
-      <c r="I19" s="7">
-        <v>557390</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1872</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1945922</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>354</v>
-      </c>
-      <c r="D20" s="7">
-        <v>370500</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>354</v>
-      </c>
-      <c r="I20" s="7">
-        <v>378558</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>708</v>
-      </c>
-      <c r="N20" s="7">
-        <v>749057</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1684</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1759031</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>896</v>
-      </c>
-      <c r="I21" s="7">
-        <v>935948</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2580</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2694979</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
